--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.393580333333333</v>
+        <v>0.6029493333333333</v>
       </c>
       <c r="H2">
-        <v>7.180740999999999</v>
+        <v>1.808848</v>
       </c>
       <c r="I2">
-        <v>0.03011252135414782</v>
+        <v>0.007963500487753664</v>
       </c>
       <c r="J2">
-        <v>0.03011252135414783</v>
+        <v>0.007963500487753662</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3852736666666667</v>
+        <v>1.820419666666666</v>
       </c>
       <c r="N2">
-        <v>1.155821</v>
+        <v>5.461258999999999</v>
       </c>
       <c r="O2">
-        <v>0.123911266650743</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="P2">
-        <v>0.123911266650743</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="Q2">
-        <v>0.9221834714845555</v>
+        <v>1.097620824403555</v>
       </c>
       <c r="R2">
-        <v>8.299651243361</v>
+        <v>9.878587419631998</v>
       </c>
       <c r="S2">
-        <v>0.003731280663040002</v>
+        <v>0.004614222801560076</v>
       </c>
       <c r="T2">
-        <v>0.003731280663040003</v>
+        <v>0.004614222801560074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.6029493333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.808848</v>
+      </c>
+      <c r="I3">
+        <v>0.007963500487753664</v>
+      </c>
+      <c r="J3">
+        <v>0.007963500487753662</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>2.393580333333333</v>
-      </c>
-      <c r="H3">
-        <v>7.180740999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.03011252135414782</v>
-      </c>
-      <c r="J3">
-        <v>0.03011252135414783</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>1.820419666666667</v>
+        <v>0.1856923333333333</v>
       </c>
       <c r="N3">
-        <v>5.461259</v>
+        <v>0.557077</v>
       </c>
       <c r="O3">
-        <v>0.5854812468347347</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="P3">
-        <v>0.5854812468347347</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="Q3">
-        <v>4.357320712546555</v>
+        <v>0.1119630685884445</v>
       </c>
       <c r="R3">
-        <v>39.215886412919</v>
+        <v>1.007667617296</v>
       </c>
       <c r="S3">
-        <v>0.01763031654776404</v>
+        <v>0.000470674874717475</v>
       </c>
       <c r="T3">
-        <v>0.01763031654776404</v>
+        <v>0.0004706748747174749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.393580333333333</v>
+        <v>0.6029493333333333</v>
       </c>
       <c r="H4">
-        <v>7.180740999999999</v>
+        <v>1.808848</v>
       </c>
       <c r="I4">
-        <v>0.03011252135414782</v>
+        <v>0.007963500487753664</v>
       </c>
       <c r="J4">
-        <v>0.03011252135414783</v>
+        <v>0.007963500487753662</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06746633333333334</v>
+        <v>1.135676666666667</v>
       </c>
       <c r="N4">
-        <v>0.202399</v>
+        <v>3.40703</v>
       </c>
       <c r="O4">
-        <v>0.0216984433219709</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="P4">
-        <v>0.0216984433219709</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="Q4">
-        <v>0.1614860886287778</v>
+        <v>0.6847554890488889</v>
       </c>
       <c r="R4">
-        <v>1.453374797659</v>
+        <v>6.16279940144</v>
       </c>
       <c r="S4">
-        <v>0.0006533948378846149</v>
+        <v>0.002878602811476113</v>
       </c>
       <c r="T4">
-        <v>0.0006533948378846151</v>
+        <v>0.002878602811476113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.393580333333333</v>
+        <v>74.08156333333334</v>
       </c>
       <c r="H5">
-        <v>7.180740999999999</v>
+        <v>222.24469</v>
       </c>
       <c r="I5">
-        <v>0.03011252135414782</v>
+        <v>0.9784380430061906</v>
       </c>
       <c r="J5">
-        <v>0.03011252135414783</v>
+        <v>0.9784380430061904</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8361109999999999</v>
+        <v>1.820419666666666</v>
       </c>
       <c r="N5">
-        <v>2.508333</v>
+        <v>5.461258999999999</v>
       </c>
       <c r="O5">
-        <v>0.2689090431925514</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="P5">
-        <v>0.2689090431925515</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="Q5">
-        <v>2.001298846083666</v>
+        <v>134.8595348294122</v>
       </c>
       <c r="R5">
-        <v>18.011689614753</v>
+        <v>1213.73581346471</v>
       </c>
       <c r="S5">
-        <v>0.008097529305459164</v>
+        <v>0.5669279652705205</v>
       </c>
       <c r="T5">
-        <v>0.008097529305459168</v>
+        <v>0.5669279652705204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>222.24469</v>
       </c>
       <c r="I6">
-        <v>0.9319857064153915</v>
+        <v>0.9784380430061906</v>
       </c>
       <c r="J6">
-        <v>0.9319857064153915</v>
+        <v>0.9784380430061904</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3852736666666667</v>
+        <v>0.1856923333333333</v>
       </c>
       <c r="N6">
-        <v>1.155821</v>
+        <v>0.557077</v>
       </c>
       <c r="O6">
-        <v>0.123911266650743</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="P6">
-        <v>0.123911266650743</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="Q6">
-        <v>28.54167553783222</v>
+        <v>13.75637835234778</v>
       </c>
       <c r="R6">
-        <v>256.87507984049</v>
+        <v>123.80740517113</v>
       </c>
       <c r="S6">
-        <v>0.1154835293823186</v>
+        <v>0.05782961952711011</v>
       </c>
       <c r="T6">
-        <v>0.1154835293823186</v>
+        <v>0.0578296195271101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>222.24469</v>
       </c>
       <c r="I7">
-        <v>0.9319857064153915</v>
+        <v>0.9784380430061906</v>
       </c>
       <c r="J7">
-        <v>0.9319857064153915</v>
+        <v>0.9784380430061904</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.820419666666667</v>
+        <v>1.135676666666667</v>
       </c>
       <c r="N7">
-        <v>5.461259</v>
+        <v>3.40703</v>
       </c>
       <c r="O7">
-        <v>0.5854812468347347</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="P7">
-        <v>0.5854812468347347</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="Q7">
-        <v>134.8595348294122</v>
+        <v>84.13270290785556</v>
       </c>
       <c r="R7">
-        <v>1213.73581346471</v>
+        <v>757.1943261707</v>
       </c>
       <c r="S7">
-        <v>0.5456601534242344</v>
+        <v>0.3536804582085599</v>
       </c>
       <c r="T7">
-        <v>0.5456601534242344</v>
+        <v>0.3536804582085599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.08156333333334</v>
+        <v>0.6115616666666667</v>
       </c>
       <c r="H8">
-        <v>222.24469</v>
+        <v>1.834685</v>
       </c>
       <c r="I8">
-        <v>0.9319857064153915</v>
+        <v>0.008077248553982608</v>
       </c>
       <c r="J8">
-        <v>0.9319857064153915</v>
+        <v>0.008077248553982607</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06746633333333334</v>
+        <v>1.820419666666666</v>
       </c>
       <c r="N8">
-        <v>0.202399</v>
+        <v>5.461258999999999</v>
       </c>
       <c r="O8">
-        <v>0.0216984433219709</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="P8">
-        <v>0.0216984433219709</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="Q8">
-        <v>4.998011445701112</v>
+        <v>1.113298885379444</v>
       </c>
       <c r="R8">
-        <v>44.98210301131</v>
+        <v>10.019689968415</v>
       </c>
       <c r="S8">
-        <v>0.02022263902754138</v>
+        <v>0.004680130868199123</v>
       </c>
       <c r="T8">
-        <v>0.02022263902754138</v>
+        <v>0.004680130868199122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.08156333333334</v>
+        <v>0.6115616666666667</v>
       </c>
       <c r="H9">
-        <v>222.24469</v>
+        <v>1.834685</v>
       </c>
       <c r="I9">
-        <v>0.9319857064153915</v>
+        <v>0.008077248553982608</v>
       </c>
       <c r="J9">
-        <v>0.9319857064153915</v>
+        <v>0.008077248553982607</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.8361109999999999</v>
+        <v>0.1856923333333333</v>
       </c>
       <c r="N9">
-        <v>2.508333</v>
+        <v>0.557077</v>
       </c>
       <c r="O9">
-        <v>0.2689090431925514</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="P9">
-        <v>0.2689090431925515</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="Q9">
-        <v>61.94041000019666</v>
+        <v>0.1135623128605556</v>
       </c>
       <c r="R9">
-        <v>557.4636900017699</v>
+        <v>1.022060815745</v>
       </c>
       <c r="S9">
-        <v>0.2506193845812971</v>
+        <v>0.0004773978424505711</v>
       </c>
       <c r="T9">
-        <v>0.2506193845812971</v>
+        <v>0.0004773978424505711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.797687</v>
+        <v>0.6115616666666667</v>
       </c>
       <c r="H10">
-        <v>8.393061000000001</v>
+        <v>1.834685</v>
       </c>
       <c r="I10">
-        <v>0.03519639945085964</v>
+        <v>0.008077248553982608</v>
       </c>
       <c r="J10">
-        <v>0.03519639945085965</v>
+        <v>0.008077248553982607</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3852736666666667</v>
+        <v>1.135676666666667</v>
       </c>
       <c r="N10">
-        <v>1.155821</v>
+        <v>3.40703</v>
       </c>
       <c r="O10">
-        <v>0.123911266650743</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="P10">
-        <v>0.123911266650743</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="Q10">
-        <v>1.077875128675667</v>
+        <v>0.6945363150611111</v>
       </c>
       <c r="R10">
-        <v>9.700876158081002</v>
+        <v>6.250826835550001</v>
       </c>
       <c r="S10">
-        <v>0.004361230437501533</v>
+        <v>0.002919719843332913</v>
       </c>
       <c r="T10">
-        <v>0.004361230437501534</v>
+        <v>0.002919719843332913</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.797687</v>
+        <v>0.4180333333333333</v>
       </c>
       <c r="H11">
-        <v>8.393061000000001</v>
+        <v>1.2541</v>
       </c>
       <c r="I11">
-        <v>0.03519639945085964</v>
+        <v>0.005521207952073292</v>
       </c>
       <c r="J11">
-        <v>0.03519639945085965</v>
+        <v>0.005521207952073291</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.820419666666667</v>
+        <v>1.820419666666666</v>
       </c>
       <c r="N11">
-        <v>5.461259</v>
+        <v>5.461258999999999</v>
       </c>
       <c r="O11">
-        <v>0.5854812468347347</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="P11">
-        <v>0.5854812468347347</v>
+        <v>0.5794214251202552</v>
       </c>
       <c r="Q11">
-        <v>5.092964435977668</v>
+        <v>0.7609961013222221</v>
       </c>
       <c r="R11">
-        <v>45.83667992379901</v>
+        <v>6.848964911899999</v>
       </c>
       <c r="S11">
-        <v>0.02060683183458268</v>
+        <v>0.003199106179975592</v>
       </c>
       <c r="T11">
-        <v>0.02060683183458268</v>
+        <v>0.003199106179975592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.797687</v>
+        <v>0.4180333333333333</v>
       </c>
       <c r="H12">
-        <v>8.393061000000001</v>
+        <v>1.2541</v>
       </c>
       <c r="I12">
-        <v>0.03519639945085964</v>
+        <v>0.005521207952073292</v>
       </c>
       <c r="J12">
-        <v>0.03519639945085965</v>
+        <v>0.005521207952073291</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,33 +1175,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06746633333333334</v>
+        <v>0.1856923333333333</v>
       </c>
       <c r="N12">
-        <v>0.202399</v>
+        <v>0.557077</v>
       </c>
       <c r="O12">
-        <v>0.0216984433219709</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="P12">
-        <v>0.0216984433219709</v>
+        <v>0.05910401781745134</v>
       </c>
       <c r="Q12">
-        <v>0.1887496837043334</v>
+        <v>0.07762558507777778</v>
       </c>
       <c r="R12">
-        <v>1.698747153339</v>
+        <v>0.6986302657000001</v>
       </c>
       <c r="S12">
-        <v>0.0007637070786219257</v>
+        <v>0.0003263255731731938</v>
       </c>
       <c r="T12">
-        <v>0.0007637070786219258</v>
+        <v>0.0003263255731731938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.797687</v>
+        <v>0.4180333333333333</v>
       </c>
       <c r="H13">
-        <v>8.393061000000001</v>
+        <v>1.2541</v>
       </c>
       <c r="I13">
-        <v>0.03519639945085964</v>
+        <v>0.005521207952073292</v>
       </c>
       <c r="J13">
-        <v>0.03519639945085965</v>
+        <v>0.005521207952073291</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8361109999999999</v>
+        <v>1.135676666666667</v>
       </c>
       <c r="N13">
-        <v>2.508333</v>
+        <v>3.40703</v>
       </c>
       <c r="O13">
-        <v>0.2689090431925514</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="P13">
-        <v>0.2689090431925515</v>
+        <v>0.3614745570622934</v>
       </c>
       <c r="Q13">
-        <v>2.339176875257</v>
+        <v>0.4747507025555555</v>
       </c>
       <c r="R13">
-        <v>21.052591877313</v>
+        <v>4.272756323</v>
       </c>
       <c r="S13">
-        <v>0.00946463010015351</v>
+        <v>0.001995776198924505</v>
       </c>
       <c r="T13">
-        <v>0.009464630100153514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2150443333333334</v>
-      </c>
-      <c r="H14">
-        <v>0.6451330000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="J14">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.3852736666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.155821</v>
-      </c>
-      <c r="O14">
-        <v>0.123911266650743</v>
-      </c>
-      <c r="P14">
-        <v>0.123911266650743</v>
-      </c>
-      <c r="Q14">
-        <v>0.08285091879922224</v>
-      </c>
-      <c r="R14">
-        <v>0.745658269193</v>
-      </c>
-      <c r="S14">
-        <v>0.0003352261678828114</v>
-      </c>
-      <c r="T14">
-        <v>0.0003352261678828114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2150443333333334</v>
-      </c>
-      <c r="H15">
-        <v>0.6451330000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="J15">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.820419666666667</v>
-      </c>
-      <c r="N15">
-        <v>5.461259</v>
-      </c>
-      <c r="O15">
-        <v>0.5854812468347347</v>
-      </c>
-      <c r="P15">
-        <v>0.5854812468347347</v>
-      </c>
-      <c r="Q15">
-        <v>0.3914709336052223</v>
-      </c>
-      <c r="R15">
-        <v>3.523238402447</v>
-      </c>
-      <c r="S15">
-        <v>0.001583945028153593</v>
-      </c>
-      <c r="T15">
-        <v>0.001583945028153593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2150443333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.6451330000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="J16">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.06746633333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.202399</v>
-      </c>
-      <c r="O16">
-        <v>0.0216984433219709</v>
-      </c>
-      <c r="P16">
-        <v>0.0216984433219709</v>
-      </c>
-      <c r="Q16">
-        <v>0.01450825267411111</v>
-      </c>
-      <c r="R16">
-        <v>0.130574274067</v>
-      </c>
-      <c r="S16">
-        <v>5.870237792297695E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.870237792297695E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2150443333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.6451330000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="J17">
-        <v>0.002705372779601082</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.8361109999999999</v>
-      </c>
-      <c r="N17">
-        <v>2.508333</v>
-      </c>
-      <c r="O17">
-        <v>0.2689090431925514</v>
-      </c>
-      <c r="P17">
-        <v>0.2689090431925515</v>
-      </c>
-      <c r="Q17">
-        <v>0.1798009325876667</v>
-      </c>
-      <c r="R17">
-        <v>1.618208393289</v>
-      </c>
-      <c r="S17">
-        <v>0.0007274992056417003</v>
-      </c>
-      <c r="T17">
-        <v>0.0007274992056417004</v>
+        <v>0.001995776198924505</v>
       </c>
     </row>
   </sheetData>
